--- a/biology/Zoologie/Adamanasuchus/Adamanasuchus.xlsx
+++ b/biology/Zoologie/Adamanasuchus/Adamanasuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adamanasuchus eisenhardtae
-Adamanasuchus est un genre fossile d'aétosaures du Trias supérieur (Carnien supérieur), représenté par une seule espèce, Adamanasuchus eisenhardtae[1].
-Il a été nommé en 2007 à partir de restes fossiles découverts dans la formation géologique de Chinle en Arizona[1],[2].
-Il est placé en groupe-frère de Scutarx deltatylus par William G. Parker en 2016[3].
+Adamanasuchus est un genre fossile d'aétosaures du Trias supérieur (Carnien supérieur), représenté par une seule espèce, Adamanasuchus eisenhardtae.
+Il a été nommé en 2007 à partir de restes fossiles découverts dans la formation géologique de Chinle en Arizona,.
+Il est placé en groupe-frère de Scutarx deltatylus par William G. Parker en 2016.
 </t>
         </is>
       </c>
